--- a/people.xlsx
+++ b/people.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A99"/>
@@ -460,46 +460,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>I00C</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Muhammet</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>Pazar</t>
+          <t>I001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Cumartesi</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>I00C</t>
+          <t>I002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ahmet</t>
+          <t>tt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cumartesi</t>
+          <t>Pazar</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>I00C</t>
+          <t>I003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hh</t>
+          <t>test</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -511,153 +511,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>I00C</t>
+          <t>I004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>aü</t>
+          <t>dfgdfg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cumartesi</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>I00C</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>aükaük</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Cumartesi</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>I00C</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>aükaütk</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Cumartesi</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>I00C</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>üeaüeaü</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Cumartesi</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>I00C</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Cumartesi</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>I00C</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>mkt</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Cumartesi</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>I00C</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>tkm</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Cumartesi</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>I00C</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>lkml</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Cumartesi</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>I00C</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>kmlk</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Cumartesi</t>
+          <t>Pazar</t>
         </is>
       </c>
     </row>
